--- a/Documents/Document/project 일정.xlsx
+++ b/Documents/Document/project 일정.xlsx
@@ -1,23 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E0E9DD-5558-4546-832B-D4B238DDDB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>NUGU:SEM 프로젝트 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.17~2023.12.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,34 +67,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>문서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>팀 미팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.17~2023.12.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUGU:SEM 프로젝트 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -208,14 +225,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +273,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -325,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,27 +518,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C11:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V24" sqref="B10:V24"/>
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="20" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21">
       <c r="H11" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -526,7 +546,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21">
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -538,9 +558,9 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21">
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>45247</v>
@@ -597,9 +617,9 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21">
       <c r="C16" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -620,9 +640,9 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:21">
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
@@ -643,9 +663,9 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:21">
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -666,14 +686,14 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:21">
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -689,9 +709,9 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:21">
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -705,16 +725,16 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:21">
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -729,15 +749,15 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:21">
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -757,9 +777,9 @@
       <c r="S22" s="1"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:21">
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
@@ -792,12 +812,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,12 +825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
